--- a/MA-Zeitplan.xlsx
+++ b/MA-Zeitplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30322ea3847d01b2/Desktop/VSC/malik.niederhauser/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="11_AD4DB114E441178AC67DF4D9DE95C222683EDF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1587A19-8673-4DD8-A999-321B44399A01}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="11_AD4DB114E441178AC67DF4D9DE95C222683EDF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D15616D-06A2-4AD4-9C6B-A835EDB1E973}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>KW</t>
   </si>
@@ -82,6 +82,36 @@
   </si>
   <si>
     <t>Schulbeginn</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>Instruction set fertig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPU Model und instruction set </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementation der Instruktionen dauert lange </t>
+  </si>
+  <si>
+    <t>informatik.mygymer.ch</t>
+  </si>
+  <si>
+    <t>Herbst Ferien</t>
+  </si>
+  <si>
+    <t>Gedruckt und Abgabebereit</t>
+  </si>
+  <si>
+    <t>Produkt und Text fertig</t>
+  </si>
+  <si>
+    <t>CPU designt</t>
+  </si>
+  <si>
+    <t>Beispiel Programme</t>
   </si>
 </sst>
 </file>
@@ -120,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -481,11 +511,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -500,39 +641,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
@@ -543,20 +660,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -842,27 +1001,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N43"/>
+  <dimension ref="B2:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="10" max="10" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="18" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -903,31 +1062,31 @@
       <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="19">
         <v>7</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="25"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="20">
         <v>8</v>
       </c>
-      <c r="D5" s="23"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -943,10 +1102,10 @@
       <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="20">
         <v>9</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -962,10 +1121,10 @@
       <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="20">
         <v>10</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -981,10 +1140,10 @@
       <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="20">
         <v>11</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1000,10 +1159,10 @@
       <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="20">
         <v>12</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1019,10 +1178,10 @@
       <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="20">
         <v>13</v>
       </c>
-      <c r="D10" s="24"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1038,10 +1197,10 @@
       <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="20">
         <v>14</v>
       </c>
-      <c r="D11" s="24"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1057,10 +1216,10 @@
       <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="20">
         <v>15</v>
       </c>
-      <c r="D12" s="24"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1076,10 +1235,10 @@
       <c r="B13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="20">
         <v>16</v>
       </c>
-      <c r="D13" s="24"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1095,10 +1254,10 @@
       <c r="B14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="20">
         <v>17</v>
       </c>
-      <c r="D14" s="24"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1114,10 +1273,10 @@
       <c r="B15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="20">
         <v>18</v>
       </c>
-      <c r="D15" s="24"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1130,11 +1289,13 @@
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="9"/>
-      <c r="C16" s="28">
+      <c r="B16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="20">
         <v>19</v>
       </c>
-      <c r="D16" s="24"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1147,11 +1308,13 @@
       <c r="N16" s="8"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B17" s="9"/>
-      <c r="C17" s="28">
+      <c r="B17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="20">
         <v>20</v>
       </c>
-      <c r="D17" s="24"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1165,27 +1328,35 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B18" s="9"/>
-      <c r="C18" s="28">
+      <c r="C18" s="20">
         <v>21</v>
       </c>
-      <c r="D18" s="24"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="8"/>
+      <c r="L18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" s="9"/>
-      <c r="C19" s="28">
+      <c r="C19" s="20">
         <v>22</v>
       </c>
-      <c r="D19" s="24"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1199,10 +1370,10 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20" s="9"/>
-      <c r="C20" s="28">
+      <c r="C20" s="20">
         <v>23</v>
       </c>
-      <c r="D20" s="24"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1216,10 +1387,10 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B21" s="9"/>
-      <c r="C21" s="28">
+      <c r="C21" s="20">
         <v>24</v>
       </c>
-      <c r="D21" s="24"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1231,97 +1402,99 @@
       <c r="M21" s="1"/>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="9"/>
-      <c r="C22" s="28">
+      <c r="C22" s="5">
         <v>25</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="8"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="36"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B23" s="10"/>
-      <c r="C23" s="29">
+      <c r="B23" s="21"/>
+      <c r="C23" s="40">
         <v>26</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="13"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B24" s="11"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="8"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="42"/>
+    </row>
+    <row r="24" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="23"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="13"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B25" s="9"/>
-      <c r="C25" s="28">
+      <c r="C25" s="10">
         <v>27</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="8"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="39"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B26" s="16"/>
-      <c r="C26" s="10">
+      <c r="B26" s="32"/>
+      <c r="C26" s="21">
         <v>28</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="13"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="28"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B27" s="22"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="24"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1335,10 +1508,10 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B28" s="9"/>
-      <c r="C28" s="28">
+      <c r="C28" s="20">
         <v>29</v>
       </c>
-      <c r="D28" s="24"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1352,10 +1525,10 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B29" s="9"/>
-      <c r="C29" s="28">
+      <c r="C29" s="20">
         <v>30</v>
       </c>
-      <c r="D29" s="24"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1369,12 +1542,12 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B30" s="9"/>
-      <c r="C30" s="28">
+      <c r="C30" s="20">
         <v>31</v>
       </c>
-      <c r="D30" s="24"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="24"/>
+      <c r="F30" s="16"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1386,7 +1559,7 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B31" s="9"/>
-      <c r="C31" s="28">
+      <c r="C31" s="20">
         <v>32</v>
       </c>
       <c r="E31" s="1"/>
@@ -1401,45 +1574,47 @@
       <c r="N31" s="8"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B32" s="16"/>
-      <c r="C32" s="10">
+      <c r="B32" s="32"/>
+      <c r="C32" s="21">
         <v>33</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="13"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="28"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B33" s="22"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="24"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="K33" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B34" s="9"/>
-      <c r="C34" s="28">
+      <c r="C34" s="20">
         <v>34</v>
       </c>
-      <c r="D34" s="24"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1453,27 +1628,29 @@
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B35" s="9"/>
-      <c r="C35" s="28">
+      <c r="C35" s="20">
         <v>35</v>
       </c>
-      <c r="D35" s="24"/>
+      <c r="D35" s="16"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="K35" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="8"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B36" s="9"/>
-      <c r="C36" s="28">
+      <c r="C36" s="20">
         <v>36</v>
       </c>
-      <c r="D36" s="24"/>
+      <c r="D36" s="16"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1487,61 +1664,65 @@
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B37" s="9"/>
-      <c r="C37" s="28">
+      <c r="C37" s="20">
         <v>37</v>
       </c>
-      <c r="D37" s="24"/>
+      <c r="D37" s="16"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="K37" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="8"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B38" s="9"/>
-      <c r="C38" s="28">
+      <c r="C38" s="20">
         <v>38</v>
       </c>
-      <c r="D38" s="24"/>
+      <c r="D38" s="16"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="K38" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="8"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B39" s="9"/>
-      <c r="C39" s="28">
+      <c r="B39" s="21"/>
+      <c r="C39" s="21">
         <v>39</v>
       </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="8"/>
+      <c r="D39" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="28"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B40" s="9"/>
-      <c r="C40" s="28">
-        <v>40</v>
-      </c>
-      <c r="D40" s="24"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="16"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1554,11 +1735,11 @@
       <c r="N40" s="8"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B41" s="31"/>
-      <c r="C41" s="5">
-        <v>41</v>
-      </c>
-      <c r="D41" s="24"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="20">
+        <v>40</v>
+      </c>
+      <c r="D41" s="16"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -1571,54 +1752,74 @@
       <c r="N41" s="8"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B42" s="10"/>
-      <c r="C42" s="29">
+      <c r="B42" s="11"/>
+      <c r="C42" s="5">
+        <v>41</v>
+      </c>
+      <c r="D42" s="16"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="8"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B43" s="21"/>
+      <c r="C43" s="26">
         <v>42</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D43" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="18"/>
-    </row>
-    <row r="43" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="32"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="20"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="30"/>
+    </row>
+    <row r="44" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="22"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B42:B43"/>
+  <mergeCells count="16">
+    <mergeCell ref="B43:B44"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="D4:N4"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="D23:N23"/>
-    <mergeCell ref="D42:N42"/>
+    <mergeCell ref="D43:N43"/>
     <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C43:C44"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="D26:N26"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="D32:N32"/>
     <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:N39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/MA-Zeitplan.xlsx
+++ b/MA-Zeitplan.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30322ea3847d01b2/Desktop/VSC/malik.niederhauser/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malik\OneDrive\Desktop\VSC\malik.niederhauser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="11_AD4DB114E441178AC67DF4D9DE95C222683EDF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D15616D-06A2-4AD4-9C6B-A835EDB1E973}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF19ACF-5829-4073-BEE1-239B312EA1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9360" yWindow="0" windowWidth="9930" windowHeight="10170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Zeitplan" sheetId="1" r:id="rId1"/>
+    <sheet name="MA-Intensivwoche" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>KW</t>
   </si>
@@ -112,13 +124,91 @@
   </si>
   <si>
     <t>Beispiel Programme</t>
+  </si>
+  <si>
+    <t>Samstag</t>
+  </si>
+  <si>
+    <t>Sonntag</t>
+  </si>
+  <si>
+    <t>Montag</t>
+  </si>
+  <si>
+    <t>Dienstag</t>
+  </si>
+  <si>
+    <t>Mittwoch</t>
+  </si>
+  <si>
+    <t>Donnerstag</t>
+  </si>
+  <si>
+    <t>Freitag</t>
+  </si>
+  <si>
+    <t>Zu Tun</t>
+  </si>
+  <si>
+    <t>- MOV-Instruktion implementiert
+- Addressing modes hinzugefügt
+- Andere Probleme behoben</t>
+  </si>
+  <si>
+    <t>- Akkumulator als Register implementieren
+- Negative Zahlen bearbeitbar machen</t>
+  </si>
+  <si>
+    <t>Gemacht</t>
+  </si>
+  <si>
+    <t>- Register Klasse hinzugefügt
+- Operand ist jetzt das nächste Byte im RAM
+- Logik für Fibonacci Programm aufgeschrieben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Mehr Platz für Operand schaffen
+</t>
+  </si>
+  <si>
+    <t>- Nächstes Byte als Operand nehmen</t>
+  </si>
+  <si>
+    <t>- Weitere Instruktionen hinzufügen
+- Negative Zahlen bearbeitbar machen
+- Assembler updaten</t>
+  </si>
+  <si>
+    <t>- Weitere Instruktionen implementieren
+- Addressing modes hinzufügen</t>
+  </si>
+  <si>
+    <t>- Byte Methoden hinzugefügt
+- RAM verbessert</t>
+  </si>
+  <si>
+    <t>- Provisorischer Assembler erstellt
+- Erstes kleines Programm</t>
+  </si>
+  <si>
+    <t>- Weitermachen und Probleme identifizieren</t>
+  </si>
+  <si>
+    <t>- Logik für Pong aufschreiben
+- Logik für Pong implementieren</t>
+  </si>
+  <si>
+    <t>- Akkumulator als Register implementieren
+- Negative Zahlen bearbeitbar machen
+- Assembler updaten
+- Display machen und mit RAM verknüpfen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,16 +231,100 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -622,11 +796,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -660,62 +879,167 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,10 +1056,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1003,7 +1323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="50" workbookViewId="0">
       <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
@@ -1065,19 +1385,19 @@
       <c r="C4" s="19">
         <v>7</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="59"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
@@ -1407,40 +1727,40 @@
       <c r="C22" s="5">
         <v>25</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="36"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="23"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B23" s="21"/>
-      <c r="C23" s="40">
+      <c r="B23" s="55"/>
+      <c r="C23" s="60">
         <v>26</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="42"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="63"/>
     </row>
     <row r="24" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="23"/>
-      <c r="C24" s="31"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="61"/>
       <c r="D24" s="17"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -1460,40 +1780,40 @@
       <c r="C25" s="10">
         <v>27</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="39"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="26"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B26" s="32"/>
-      <c r="C26" s="21">
+      <c r="B26" s="67"/>
+      <c r="C26" s="55">
         <v>28</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="28"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="70"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B27" s="33"/>
-      <c r="C27" s="23"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="16"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1574,27 +1894,27 @@
       <c r="N31" s="8"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B32" s="32"/>
-      <c r="C32" s="21">
+      <c r="B32" s="67"/>
+      <c r="C32" s="55">
         <v>33</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="28"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="70"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B33" s="33"/>
-      <c r="C33" s="23"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="57"/>
       <c r="D33" s="16"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1701,27 +2021,27 @@
       <c r="N38" s="8"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B39" s="21"/>
-      <c r="C39" s="21">
+      <c r="B39" s="55"/>
+      <c r="C39" s="55">
         <v>39</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="D39" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="28"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="70"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
       <c r="D40" s="16"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -1769,27 +2089,27 @@
       <c r="N42" s="8"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B43" s="21"/>
-      <c r="C43" s="26">
+      <c r="B43" s="55"/>
+      <c r="C43" s="66">
         <v>42</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="30"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="64"/>
+      <c r="M43" s="64"/>
+      <c r="N43" s="65"/>
     </row>
     <row r="44" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="22"/>
-      <c r="C44" s="31"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="61"/>
       <c r="D44" s="17"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
@@ -1824,4 +2144,162 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18EAA04E-3179-4EA5-8781-1F5ACEA7B7D4}">
+  <dimension ref="D5:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="39.26953125" customWidth="1"/>
+    <col min="5" max="5" width="33.453125" customWidth="1"/>
+    <col min="6" max="6" width="40.36328125" customWidth="1"/>
+    <col min="7" max="7" width="38.1796875" customWidth="1"/>
+    <col min="8" max="8" width="36.26953125" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="4:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="74"/>
+    </row>
+    <row r="8" spans="4:12" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="41"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="29"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="78" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="74"/>
+    </row>
+    <row r="10" spans="4:12" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="42"/>
+    </row>
+    <row r="11" spans="4:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="74"/>
+    </row>
+    <row r="12" spans="4:12" ht="80" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D12" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="44"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="D11:L11"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MA-Zeitplan.xlsx
+++ b/MA-Zeitplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malik\OneDrive\Desktop\VSC\malik.niederhauser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF19ACF-5829-4073-BEE1-239B312EA1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35763907-8DD9-4E71-8EED-8B94692920A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="0" windowWidth="9930" windowHeight="10170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan" sheetId="1" r:id="rId1"/>
@@ -969,6 +969,18 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,18 +1040,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1385,19 +1385,19 @@
       <c r="C4" s="19">
         <v>7</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="59"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="63"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
@@ -1740,27 +1740,27 @@
       <c r="N22" s="23"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B23" s="55"/>
-      <c r="C23" s="60">
+      <c r="B23" s="59"/>
+      <c r="C23" s="64">
         <v>26</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="63"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="67"/>
     </row>
     <row r="24" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="57"/>
-      <c r="C24" s="61"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="17"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -1793,27 +1793,27 @@
       <c r="N25" s="26"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B26" s="67"/>
-      <c r="C26" s="55">
+      <c r="B26" s="71"/>
+      <c r="C26" s="59">
         <v>28</v>
       </c>
-      <c r="D26" s="69" t="s">
+      <c r="D26" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="70"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="74"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B27" s="68"/>
-      <c r="C27" s="57"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="16"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1894,27 +1894,27 @@
       <c r="N31" s="8"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B32" s="67"/>
-      <c r="C32" s="55">
+      <c r="B32" s="71"/>
+      <c r="C32" s="59">
         <v>33</v>
       </c>
-      <c r="D32" s="69" t="s">
+      <c r="D32" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="70"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="74"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B33" s="68"/>
-      <c r="C33" s="57"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="61"/>
       <c r="D33" s="16"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2021,27 +2021,27 @@
       <c r="N38" s="8"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B39" s="55"/>
-      <c r="C39" s="55">
+      <c r="B39" s="59"/>
+      <c r="C39" s="59">
         <v>39</v>
       </c>
-      <c r="D39" s="71" t="s">
+      <c r="D39" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="69"/>
-      <c r="M39" s="69"/>
-      <c r="N39" s="70"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="74"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
       <c r="D40" s="16"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2089,27 +2089,27 @@
       <c r="N42" s="8"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B43" s="55"/>
-      <c r="C43" s="66">
+      <c r="B43" s="59"/>
+      <c r="C43" s="70">
         <v>42</v>
       </c>
-      <c r="D43" s="64" t="s">
+      <c r="D43" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="64"/>
-      <c r="L43" s="64"/>
-      <c r="M43" s="64"/>
-      <c r="N43" s="65"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="69"/>
     </row>
     <row r="44" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="56"/>
-      <c r="C44" s="61"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="17"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
@@ -2150,7 +2150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18EAA04E-3179-4EA5-8781-1F5ACEA7B7D4}">
   <dimension ref="D5:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="75" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -2198,17 +2198,17 @@
       </c>
     </row>
     <row r="7" spans="4:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="74"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="78"/>
     </row>
     <row r="8" spans="4:12" ht="80" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D8" s="41"/>
@@ -2225,28 +2225,28 @@
       <c r="I8" s="29"/>
       <c r="J8" s="30"/>
       <c r="K8" s="31"/>
-      <c r="L8" s="78" t="s">
+      <c r="L8" s="58" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="4:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="74"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="78"/>
     </row>
     <row r="10" spans="4:12" ht="80" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="76" t="s">
+      <c r="E10" s="56" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="49" t="s">
@@ -2262,20 +2262,20 @@
       <c r="L10" s="42"/>
     </row>
     <row r="11" spans="4:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="74"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="78"/>
     </row>
     <row r="12" spans="4:12" ht="80" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D12" s="77" t="s">
+      <c r="D12" s="57" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="51" t="s">

--- a/MA-Zeitplan.xlsx
+++ b/MA-Zeitplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malik\OneDrive\Desktop\VSC\malik.niederhauser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30322ea3847d01b2/Desktop/VSC/malik.niederhauser/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35763907-8DD9-4E71-8EED-8B94692920A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{35763907-8DD9-4E71-8EED-8B94692920A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B88CD22-EC21-49A0-AE21-D46FE17DFAFE}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>KW</t>
   </si>
@@ -202,6 +202,19 @@
 - Negative Zahlen bearbeitbar machen
 - Assembler updaten
 - Display machen und mit RAM verknüpfen</t>
+  </si>
+  <si>
+    <t>- Display und CPU bzw. RAM verknüpfen
+- Display optimieren</t>
+  </si>
+  <si>
+    <t>- Display mit CPU verknüpfen
+- Display Optimisation beginnen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Beide Ziele umgesetzt
+- Display herumprobiert
+- </t>
   </si>
 </sst>
 </file>
@@ -888,9 +901,6 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -936,9 +946,6 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1040,6 +1047,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1385,19 +1398,19 @@
       <c r="C4" s="19">
         <v>7</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="63"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="61"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
@@ -1740,27 +1753,27 @@
       <c r="N22" s="23"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B23" s="59"/>
-      <c r="C23" s="64">
+      <c r="B23" s="57"/>
+      <c r="C23" s="62">
         <v>26</v>
       </c>
-      <c r="D23" s="66" t="s">
+      <c r="D23" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="67"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="65"/>
     </row>
     <row r="24" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="61"/>
-      <c r="C24" s="65"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="17"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -1793,27 +1806,27 @@
       <c r="N25" s="26"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B26" s="71"/>
-      <c r="C26" s="59">
+      <c r="B26" s="69"/>
+      <c r="C26" s="57">
         <v>28</v>
       </c>
-      <c r="D26" s="73" t="s">
+      <c r="D26" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="74"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="72"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B27" s="72"/>
-      <c r="C27" s="61"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="59"/>
       <c r="D27" s="16"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1894,27 +1907,27 @@
       <c r="N31" s="8"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B32" s="71"/>
-      <c r="C32" s="59">
+      <c r="B32" s="69"/>
+      <c r="C32" s="57">
         <v>33</v>
       </c>
-      <c r="D32" s="73" t="s">
+      <c r="D32" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="74"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="72"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B33" s="72"/>
-      <c r="C33" s="61"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="59"/>
       <c r="D33" s="16"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2021,27 +2034,27 @@
       <c r="N38" s="8"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B39" s="59"/>
-      <c r="C39" s="59">
+      <c r="B39" s="57"/>
+      <c r="C39" s="57">
         <v>39</v>
       </c>
-      <c r="D39" s="75" t="s">
+      <c r="D39" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="73"/>
-      <c r="K39" s="73"/>
-      <c r="L39" s="73"/>
-      <c r="M39" s="73"/>
-      <c r="N39" s="74"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="72"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
       <c r="D40" s="16"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2089,27 +2102,27 @@
       <c r="N42" s="8"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B43" s="59"/>
-      <c r="C43" s="70">
+      <c r="B43" s="57"/>
+      <c r="C43" s="68">
         <v>42</v>
       </c>
-      <c r="D43" s="68" t="s">
+      <c r="D43" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="68"/>
-      <c r="M43" s="68"/>
-      <c r="N43" s="69"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="66"/>
+      <c r="M43" s="66"/>
+      <c r="N43" s="67"/>
     </row>
     <row r="44" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="60"/>
-      <c r="C44" s="65"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="63"/>
       <c r="D44" s="17"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
@@ -2161,7 +2174,7 @@
     <col min="6" max="6" width="40.36328125" customWidth="1"/>
     <col min="7" max="7" width="38.1796875" customWidth="1"/>
     <col min="8" max="8" width="36.26953125" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.90625" customWidth="1"/>
     <col min="10" max="10" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.90625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32.6328125" customWidth="1"/>
@@ -2169,129 +2182,135 @@
   <sheetData>
     <row r="5" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="4:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="40" t="s">
+      <c r="L6" s="39" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="4:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="78"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="76"/>
     </row>
     <row r="8" spans="4:12" ht="80" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="41"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="27"/>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="58" t="s">
+      <c r="I8" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="56" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="4:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="78"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="76"/>
     </row>
     <row r="10" spans="4:12" ht="80" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="42"/>
+      <c r="H10" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="41"/>
     </row>
     <row r="11" spans="4:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="78"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="76"/>
     </row>
     <row r="12" spans="4:12" ht="80" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="48"/>
+      <c r="H12" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="43"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/MA-Zeitplan.xlsx
+++ b/MA-Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30322ea3847d01b2/Desktop/VSC/malik.niederhauser/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{35763907-8DD9-4E71-8EED-8B94692920A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B88CD22-EC21-49A0-AE21-D46FE17DFAFE}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{35763907-8DD9-4E71-8EED-8B94692920A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62B12800-7A9D-4B54-A446-2A30F9660DE8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>KW</t>
   </si>
@@ -215,6 +215,9 @@
     <t xml:space="preserve">- Beide Ziele umgesetzt
 - Display herumprobiert
 - </t>
+  </si>
+  <si>
+    <t>- Code strukturieren für besseren Überblick</t>
   </si>
 </sst>
 </file>
@@ -946,9 +949,6 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -988,6 +988,12 @@
     <xf numFmtId="49" fontId="0" fillId="12" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1048,11 +1054,8 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1398,19 +1401,19 @@
       <c r="C4" s="19">
         <v>7</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="62"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
@@ -1753,27 +1756,27 @@
       <c r="N22" s="23"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B23" s="57"/>
-      <c r="C23" s="62">
+      <c r="B23" s="58"/>
+      <c r="C23" s="63">
         <v>26</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="66"/>
     </row>
     <row r="24" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="59"/>
-      <c r="C24" s="63"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="17"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -1806,27 +1809,27 @@
       <c r="N25" s="26"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B26" s="69"/>
-      <c r="C26" s="57">
+      <c r="B26" s="70"/>
+      <c r="C26" s="58">
         <v>28</v>
       </c>
-      <c r="D26" s="71" t="s">
+      <c r="D26" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="73"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B27" s="70"/>
-      <c r="C27" s="59"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="16"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1907,27 +1910,27 @@
       <c r="N31" s="8"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B32" s="69"/>
-      <c r="C32" s="57">
+      <c r="B32" s="70"/>
+      <c r="C32" s="58">
         <v>33</v>
       </c>
-      <c r="D32" s="71" t="s">
+      <c r="D32" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="73"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B33" s="70"/>
-      <c r="C33" s="59"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="60"/>
       <c r="D33" s="16"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2034,27 +2037,27 @@
       <c r="N38" s="8"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B39" s="57"/>
-      <c r="C39" s="57">
+      <c r="B39" s="58"/>
+      <c r="C39" s="58">
         <v>39</v>
       </c>
-      <c r="D39" s="73" t="s">
+      <c r="D39" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="73"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
       <c r="D40" s="16"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2102,27 +2105,27 @@
       <c r="N42" s="8"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B43" s="57"/>
-      <c r="C43" s="68">
+      <c r="B43" s="58"/>
+      <c r="C43" s="69">
         <v>42</v>
       </c>
-      <c r="D43" s="66" t="s">
+      <c r="D43" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="66"/>
-      <c r="L43" s="66"/>
-      <c r="M43" s="66"/>
-      <c r="N43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="67"/>
+      <c r="N43" s="68"/>
     </row>
     <row r="44" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="58"/>
-      <c r="C44" s="63"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="64"/>
       <c r="D44" s="17"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
@@ -2163,8 +2166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18EAA04E-3179-4EA5-8781-1F5ACEA7B7D4}">
   <dimension ref="D5:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2174,7 +2177,7 @@
     <col min="6" max="6" width="40.36328125" customWidth="1"/>
     <col min="7" max="7" width="38.1796875" customWidth="1"/>
     <col min="8" max="8" width="36.26953125" customWidth="1"/>
-    <col min="9" max="9" width="31.90625" customWidth="1"/>
+    <col min="9" max="9" width="40.54296875" customWidth="1"/>
     <col min="10" max="10" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.90625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32.6328125" customWidth="1"/>
@@ -2211,66 +2214,66 @@
       </c>
     </row>
     <row r="7" spans="4:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="77"/>
     </row>
     <row r="8" spans="4:12" ht="80" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D8" s="40"/>
       <c r="E8" s="27"/>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="49" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="78" t="s">
+      <c r="I8" s="57" t="s">
         <v>51</v>
       </c>
       <c r="J8" s="29"/>
       <c r="K8" s="30"/>
-      <c r="L8" s="56" t="s">
+      <c r="L8" s="55" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="4:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="77"/>
     </row>
     <row r="10" spans="4:12" ht="80" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="46" t="s">
         <v>40</v>
       </c>
       <c r="G10" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="52" t="s">
+      <c r="H10" s="51" t="s">
         <v>52</v>
       </c>
       <c r="I10" s="28"/>
@@ -2279,38 +2282,40 @@
       <c r="L10" s="41"/>
     </row>
     <row r="11" spans="4:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="77"/>
     </row>
     <row r="12" spans="4:12" ht="80" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="51" t="s">
+      <c r="F12" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="48" t="s">
+      <c r="G12" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="77" t="s">
+      <c r="H12" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="43"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="46"/>
+      <c r="I12" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="43"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="3">
